--- a/reports/corpus_1500-unigram_trigram-fold-5.xlsx
+++ b/reports/corpus_1500-unigram_trigram-fold-5.xlsx
@@ -557,73 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9657387580299786</v>
+        <v>0.9957173447537473</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9767441860465116</v>
+        <v>0.9966777408637874</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7547770700636943</v>
+        <v>0.9363057324840764</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8767123287671232</v>
+        <v>0.9931506849315068</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8496732026143791</v>
+        <v>0.9477124183006536</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9069767441860465</v>
+        <v>0.9612403100775194</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8229166666666666</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4120734908136483</v>
+        <v>0.7506561679790026</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9654046997389034</v>
+        <v>0.9438642297650131</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3316283034953112</v>
+        <v>0.6547314578005116</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5722543352601156</v>
+        <v>0.861271676300578</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3561643835616438</v>
+        <v>0.7579908675799086</v>
       </c>
       <c r="R2" t="n">
-        <v>0.18</v>
+        <v>0.46</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3541009463722398</v>
+        <v>0.7523659305993691</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6500359453630482</v>
+        <v>0.8416966211358735</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5049395744621318</v>
+        <v>0.7888435382060938</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8351263537595363</v>
+        <v>0.8706811044629548</v>
       </c>
     </row>
     <row r="3">
@@ -639,67 +639,67 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9966101694915255</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8590604026845637</v>
+        <v>0.8841463414634146</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9420289855072463</v>
+        <v>0.9477124183006536</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9465648854961832</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0.983402489626556</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9345238095238095</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.75</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3922036595067621</v>
+        <v>0.6235446313065977</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9974358974358974</v>
+        <v>0.9986996098829649</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9490445859872612</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.92</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8803921568627451</v>
+        <v>0.9077069457659372</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6500359453630482</v>
+        <v>0.8416966211358735</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7699524662574753</v>
+        <v>0.8770457925757006</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6500359453630482</v>
+        <v>0.8416966211358735</v>
       </c>
     </row>
     <row r="4">
@@ -709,73 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9825708061002179</v>
+        <v>0.9978540772532188</v>
       </c>
       <c r="C4" t="n">
-        <v>0.988235294117647</v>
+        <v>0.9983361064891847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8602540834845736</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8677966101694914</v>
+        <v>0.935483870967742</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8934707903780069</v>
+        <v>0.9477124183006536</v>
       </c>
       <c r="H4" t="n">
-        <v>0.921259842519685</v>
+        <v>0.9538461538461538</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8960302457466918</v>
+        <v>0.951048951048951</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5719489981785064</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5714285714285715</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.7272727272727274</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5577974731284178</v>
+        <v>0.750973773045962</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4977607165706974</v>
+        <v>0.7909371781668384</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7122302158273381</v>
+        <v>0.903030303030303</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.52</v>
+        <v>0.8197530864197531</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2950819672131147</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5050618672665917</v>
+        <v>0.8227684346701165</v>
       </c>
       <c r="U4" t="n">
-        <v>0.25</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6500359453630482</v>
+        <v>0.8416966211358735</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5621934329300069</v>
+        <v>0.8205663860863897</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6531006226109322</v>
+        <v>0.8391679858734157</v>
       </c>
     </row>
     <row r="5">
@@ -785,67 +785,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="C5" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="E5" t="n">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="H5" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="K5" t="n">
-        <v>168</v>
+        <v>312</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N5" t="n">
-        <v>3771</v>
+        <v>2319</v>
       </c>
       <c r="O5" t="n">
-        <v>390</v>
+        <v>769</v>
       </c>
       <c r="P5" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="Q5" t="n">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="R5" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>510</v>
+        <v>1051</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6500359453630482</v>
+        <v>0.8416966211358735</v>
       </c>
       <c r="W5" t="n">
         <v>6955</v>
